--- a/DatenbankenStuff/Rheinland-Pfalz.xlsx
+++ b/DatenbankenStuff/Rheinland-Pfalz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Stadt</t>
   </si>
@@ -93,6 +93,39 @@
   </si>
   <si>
     <t>55,63 km2</t>
+  </si>
+  <si>
+    <t>Oberbürgermeister</t>
+  </si>
+  <si>
+    <t>Michael Ebling</t>
+  </si>
+  <si>
+    <t>Jutta Steinruck</t>
+  </si>
+  <si>
+    <t>David Langner</t>
+  </si>
+  <si>
+    <t>Wolfram Leibe</t>
+  </si>
+  <si>
+    <t>Klaus Weichel</t>
+  </si>
+  <si>
+    <t>Michael Kissel</t>
+  </si>
+  <si>
+    <t>Jan Einig</t>
+  </si>
+  <si>
+    <t>Mark Weigel</t>
+  </si>
+  <si>
+    <t>Hansjörg Eger</t>
+  </si>
+  <si>
+    <t>Heike Kaster-Meurer</t>
   </si>
 </sst>
 </file>
@@ -136,13 +169,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +464,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,129 +472,162 @@
     <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>213528</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>166621</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>113605</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>110111</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>99302</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>82595</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>64689</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>53209</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>50551</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>50034</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
